--- a/biology/Zoologie/Fungia_distorta/Fungia_distorta.xlsx
+++ b/biology/Zoologie/Fungia_distorta/Fungia_distorta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fungia distorta est une espèce de coraux de la famille des Fungiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour plusieurs sources, dont le WoRMS, ce taxon est invalide et lui préfèrent Cycloseris distorta (Michelin, 1842) le classant ainsi sous le genre Cycloseris[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour plusieurs sources, dont le WoRMS, ce taxon est invalide et lui préfèrent Cycloseris distorta (Michelin, 1842) le classant ainsi sous le genre Cycloseris.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michelin, 1842 : Description d'une nouvelle espèce de Zoophyte du genre Fongie. Revue Zoologique par La Société Cuvierienne, Association universelle pour l'Avancement de la Zoologie, de l'Anatomie comparée et de la Paléontologie, vol. 5, p. 316 (fr).</t>
         </is>
